--- a/files/reconciliation-tables/Source/Reconciliation table of studies and conclusions.xlsx
+++ b/files/reconciliation-tables/Source/Reconciliation table of studies and conclusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob\Dropbox\work\z_research\OpenMetaAnalysis\Asthma treatment with tezepelumab\reconciliation-tables\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BC816-C86A-4CA0-AA37-B4E93B26F99D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BCDC97-2EBC-48A2-BA06-00B5FC57DB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="945" windowWidth="23805" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="660" windowWidth="23805" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reconciliation table" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="25">
   <si>
     <t>Edris, 2021
 PMID 33988014</t>
@@ -130,21 +130,34 @@
     <t>Current review,  2021</t>
   </si>
   <si>
-    <t>RRR = 71%</t>
-  </si>
-  <si>
-    <t>Pending PDF</t>
+    <t>Menzies-Gow 
+(NAVIGATOR), 2021</t>
   </si>
   <si>
     <t>NA. Not available.
 RR. Risk Ratio.
+D. Cohen's d effect difference.
 RRR. Relative risk ratio.
 CI. Confidence Interval.
 * ARAE. Annualized rate of asthma exacerbations.</t>
   </si>
   <si>
-    <t>Menzies-Gow 
-(NAVIGATOR), 2021</t>
+    <t>d = 1.13 (-0.23 to 2.76) (insignificant)</t>
+  </si>
+  <si>
+    <t>d = 1.17 (-0.68 to 3.15) (insignificant)</t>
+  </si>
+  <si>
+    <t>NA 
+(network meta-analysis)</t>
+  </si>
+  <si>
+    <t>NA. Not available.
+RR. Risk Ratio.
+d. Cohen's d effect difference.
+RRR. Relative risk ratio.
+CI. Confidence Interval.
+* ARAE. Annualized rate of asthma exacerbations.</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1051,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,29 +1091,32 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,7 +1135,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1133,7 +1149,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -1199,7 +1215,7 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -1221,7 +1237,7 @@
     </row>
     <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1292,7 +1308,7 @@
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1322,14 +1338,14 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1362,29 +1378,32 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,7 +1422,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -1417,7 +1436,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -1469,7 +1488,7 @@
     </row>
     <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1483,5 +1502,6 @@
     <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>